--- a/config_Release/year_xsfl_config.xlsx
+++ b/config_Release/year_xsfl_config.xlsx
@@ -5,58 +5,81 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="time|时间段|" sheetId="4" r:id="rId1"/>
+    <sheet name="shop_ids|礼包id" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id|</t>
   </si>
   <si>
-    <t>endtime|结束时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>starttime|开始时间,最后一个指的是总的活动时间</t>
   </si>
   <si>
-    <t>starttime|开始时间,最后一个指的是总的活动时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>endtime|结束时间</t>
   </si>
   <si>
     <t>|备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8点-10点</t>
   </si>
   <si>
     <t>12点-14点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8点-10点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20点-22点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总的结束时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>shop_id|礼包id</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点-22点</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,14 +91,19 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -87,31 +115,34 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -146,14 +177,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -162,7 +207,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,112 +492,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="39.625" customWidth="1"/>
-    <col min="7" max="7" width="61" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="9">
+        <v>28800</v>
+      </c>
+      <c r="C2" s="9">
+        <v>36000</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43200</v>
+      </c>
+      <c r="C3" s="9">
+        <v>50400</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="B4" s="9">
+        <v>64800</v>
+      </c>
+      <c r="C4" s="9">
+        <v>79200</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1613433600</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1614009599</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>28800</v>
-      </c>
-      <c r="C2" s="5">
-        <v>36000</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="12">
+        <v>10473</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>10474</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>10475</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>10476</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43200</v>
-      </c>
-      <c r="C3" s="5">
-        <v>50400</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>72000</v>
-      </c>
-      <c r="C4" s="5">
-        <v>79200</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B6" s="12">
+        <v>10477</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1567440000</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1572883199</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B7" s="12">
+        <v>10478</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
+      <c r="B8" s="12">
+        <v>10479</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>10480</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>10481</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>